--- a/static/FORMAT_GLOSA.xlsx
+++ b/static/FORMAT_GLOSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUIS CARLOS VASQUEZ TORO\ProyectosElectron\Fact.Squid\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ProyectosElectron\Fact.Squid\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="GLOSAS" sheetId="1" r:id="rId1"/>
+    <sheet name="DETAILS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">FECHA_DE_GLOSA </t>
   </si>
@@ -42,14 +43,76 @@
   </si>
   <si>
     <t>FACTURA</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>TIPO DE CARGA</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>Fact.Squid</t>
+  </si>
+  <si>
+    <t>DOCUMENTO GESTOR</t>
+  </si>
+  <si>
+    <t>FECHA DOCUMENTO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>TIPOS</t>
+  </si>
+  <si>
+    <t>1-GLOSA_RATIFICADA</t>
+  </si>
+  <si>
+    <t>0-GLOSA_INICIAL</t>
+  </si>
+  <si>
+    <t>2-GLOSA_INICIAL_SALDO_CERO</t>
+  </si>
+  <si>
+    <t>3-GLOSA_RATIFICADA_SALDO_CERO</t>
+  </si>
+  <si>
+    <t>4-DEVOLUCION</t>
+  </si>
+  <si>
+    <t>5-FACTURA_DEVUELTA(GLOSA 100%)</t>
+  </si>
+  <si>
+    <t>6-FACTURA_DEVUELTA(NO_ACEPTACION)</t>
+  </si>
+  <si>
+    <t>NIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +136,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,40 +454,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DETAILS!$B$5:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/static/FORMAT_GLOSA.xlsx
+++ b/static/FORMAT_GLOSA.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ProyectosElectron\Fact.Squid\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosvasquez/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSAS" sheetId="1" r:id="rId1"/>
     <sheet name="DETAILS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">FECHA_DE_GLOSA </t>
   </si>
@@ -48,9 +51,6 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>TIPO DE CARGA</t>
   </si>
   <si>
@@ -75,34 +75,28 @@
     <t>TIPOS</t>
   </si>
   <si>
-    <t>1-GLOSA_RATIFICADA</t>
-  </si>
-  <si>
-    <t>0-GLOSA_INICIAL</t>
-  </si>
-  <si>
-    <t>2-GLOSA_INICIAL_SALDO_CERO</t>
-  </si>
-  <si>
-    <t>3-GLOSA_RATIFICADA_SALDO_CERO</t>
-  </si>
-  <si>
-    <t>4-DEVOLUCION</t>
-  </si>
-  <si>
-    <t>5-FACTURA_DEVUELTA(GLOSA 100%)</t>
-  </si>
-  <si>
-    <t>6-FACTURA_DEVUELTA(NO_ACEPTACION)</t>
-  </si>
-  <si>
     <t>NIT</t>
+  </si>
+  <si>
+    <t>2-GLOSA_INICIAL</t>
+  </si>
+  <si>
+    <t>3-GLOSA_RATIFICADA</t>
+  </si>
+  <si>
+    <t>4-GLOSA_INICIAL_SALDO_CERO</t>
+  </si>
+  <si>
+    <t>5-GLOSA_RATIFICADA_SALDO_CERO</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,16 +132,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,22 +451,22 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="6"/>
@@ -480,9 +474,9 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -490,9 +484,9 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -500,9 +494,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -510,7 +504,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -537,16 +531,30 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no se encuentra dentro del rango permitido: 01-01-2018 &gt;&lt; 31-12-2999" sqref="B2:F2">
+      <formula1>43101</formula1>
+      <formula2>401768</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no es un numero de identificacion valido" sqref="B1:F1">
+      <formula1>10000000</formula1>
+      <formula2>99999999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El numero ingreso no es un numero de NIT valido" sqref="B4:F4">
+      <formula1>10000000</formula1>
+      <formula2>99999999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no esta dentro de la lista permitida">
           <x14:formula1>
-            <xm:f>DETAILS!$B$5:$B$11</xm:f>
+            <xm:f>DETAILS!$B$5:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B3:F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -559,76 +567,70 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/FORMAT_GLOSA.xlsx
+++ b/static/FORMAT_GLOSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosvasquez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosvasquez/Documents/Github Projects/Fact.Squid/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">FECHA_DE_GLOSA </t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>3.0</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>AAAA</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +154,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,15 +177,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +474,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,7 +491,7 @@
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -478,11 +501,17 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -525,17 +554,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no se encuentra dentro del rango permitido: 01-01-2018 &gt;&lt; 31-12-2999" sqref="B2:F2">
-      <formula1>43101</formula1>
-      <formula2>401768</formula2>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no es un numero de identificacion valido" sqref="B1:F1">
       <formula1>10000000</formula1>
       <formula2>99999999999</formula2>
@@ -549,12 +573,30 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR DE VALOR" error="El valor ingresado no esta dentro de la lista permitida">
           <x14:formula1>
             <xm:f>DETAILS!$B$5:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B3:F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DETAILS!$B$10:$B$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DETAILS!$C$10:$C$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DETAILS!$D$10:$D$110</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -564,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,7 +618,7 @@
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -584,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -600,7 +642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -608,29 +650,666 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="13">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="13">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="13">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="13">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="13">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="13">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="13">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="13">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="13">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="13">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="13">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="13">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="13">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="13">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="13">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="13">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="13">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="13">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="13">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>2099</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
